--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\1 этап\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5495E7C5-A404-4459-9073-695C1BD66400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2B19D8-616A-4CBB-8EF2-AB49FFA48F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E5C152E2-B3AC-421D-8233-E02EC140A5AD}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="102">
   <si>
     <t>ID</t>
   </si>
@@ -318,6 +318,27 @@
   </si>
   <si>
     <t>Приложение перенаправляет на страницу пользовательского соглашения</t>
+  </si>
+  <si>
+    <t>Возможность автоматизации</t>
+  </si>
+  <si>
+    <t>Возможно</t>
+  </si>
+  <si>
+    <t>Невозможно</t>
+  </si>
+  <si>
+    <t>Сортировка новостей</t>
+  </si>
+  <si>
+    <t>3. Нажать на кнопку сортировки (две стрелочки)</t>
+  </si>
+  <si>
+    <t>Приложение осуществляет сортировку новостей по дате</t>
+  </si>
+  <si>
+    <t>Периодическое добавление новых новостей, не даёт возможности автоматизировать данный тест</t>
   </si>
 </sst>
 </file>
@@ -412,7 +433,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -600,11 +621,143 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -630,89 +783,134 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1028,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E650588-50D4-4BBC-9323-3AA011FEB6FA}">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55:G57"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1044,9 +1242,10 @@
     <col min="6" max="6" width="41.77734375" customWidth="1"/>
     <col min="7" max="7" width="51.21875" customWidth="1"/>
     <col min="8" max="8" width="25.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1071,961 +1270,1052 @@
       <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+      <c r="I1" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
+      <c r="H2" s="29"/>
+      <c r="I2" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="22"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="22"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="18" t="s">
+      <c r="H5" s="29"/>
+      <c r="I5" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="18" t="s">
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="10" t="s">
+      <c r="G7" s="31"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="14"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="29"/>
+      <c r="E8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="18" t="s">
+      <c r="H8" s="30"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="18" t="s">
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="18" t="s">
+      <c r="G10" s="31"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="14"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="18" t="s">
+      <c r="H11" s="30"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="22"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="18">
         <v>3</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="18" t="s">
+      <c r="D13" s="29"/>
+      <c r="E13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="18" t="s">
+      <c r="H13" s="29"/>
+      <c r="I13" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="14"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
+      <c r="H14" s="30"/>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="41">
         <v>4</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="42"/>
+      <c r="E15" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="18" t="s">
+      <c r="H15" s="42"/>
+      <c r="I15" s="45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
+      <c r="G16" s="49"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="50"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="51">
         <v>5</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" s="51" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="27"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="1:9" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="22"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+    </row>
+    <row r="21" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="18">
+        <v>6</v>
+      </c>
+      <c r="B21" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C21" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10" t="s">
+      <c r="D21" s="29"/>
+      <c r="E21" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G21" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="18" t="s">
+      <c r="H21" s="18"/>
+      <c r="I21" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="14"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="21" t="s">
+      <c r="G22" s="27"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="1:9" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="14"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="21" t="s">
+      <c r="G23" s="27"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="22"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="1:8" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9">
-        <v>6</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="G24" s="28"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="1:9" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="18">
+        <v>7</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C25" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
+      <c r="D25" s="18"/>
+      <c r="E25" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F25" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G25" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="H21" s="26"/>
-    </row>
-    <row r="22" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="18" t="s">
+      <c r="H25" s="19"/>
+      <c r="I25" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="27"/>
-    </row>
-    <row r="23" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="18" t="s">
+      <c r="G26" s="25"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="27"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="18" t="s">
+      <c r="G27" s="25"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="27"/>
-    </row>
-    <row r="25" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="18" t="s">
+      <c r="G28" s="25"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="27"/>
-    </row>
-    <row r="26" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="18" t="s">
+      <c r="G29" s="25"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+    </row>
+    <row r="30" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="27"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="18" t="s">
+      <c r="G30" s="25"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="27"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="18" t="s">
+      <c r="G31" s="25"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="28"/>
-    </row>
-    <row r="29" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="9">
-        <v>7</v>
-      </c>
-      <c r="B29" s="9" t="s">
+      <c r="G32" s="24"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+    </row>
+    <row r="33" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="18">
+        <v>8</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C33" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
+      <c r="D33" s="18"/>
+      <c r="E33" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F33" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G33" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="H29" s="29"/>
-    </row>
-    <row r="30" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="18" t="s">
+      <c r="H33" s="15"/>
+      <c r="I33" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="24"/>
-      <c r="H30" s="30"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="18" t="s">
+      <c r="G34" s="25"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G31" s="24"/>
-      <c r="H31" s="30"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="18" t="s">
+      <c r="G35" s="25"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G32" s="25"/>
-      <c r="H32" s="31"/>
-    </row>
-    <row r="33" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="9">
-        <v>8</v>
-      </c>
-      <c r="B33" s="9" t="s">
+      <c r="G36" s="24"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="18">
+        <v>9</v>
+      </c>
+      <c r="B37" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C37" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
+      <c r="D37" s="18"/>
+      <c r="E37" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F37" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G33" s="19" t="s">
+      <c r="G37" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="H33" s="12"/>
-    </row>
-    <row r="34" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="18" t="s">
+      <c r="H37" s="14"/>
+      <c r="I37" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G34" s="22"/>
-      <c r="H34" s="12"/>
-    </row>
-    <row r="35" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="18" t="s">
+      <c r="G38" s="27"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+    </row>
+    <row r="39" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G35" s="22"/>
-      <c r="H35" s="12"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="18" t="s">
+      <c r="G39" s="27"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="22"/>
-      <c r="H36" s="12"/>
-    </row>
-    <row r="37" spans="1:8" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="18" t="s">
+      <c r="G40" s="27"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+    </row>
+    <row r="41" spans="1:9" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G37" s="22"/>
-      <c r="H37" s="12"/>
-    </row>
-    <row r="38" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="18" t="s">
+      <c r="G41" s="27"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+    </row>
+    <row r="42" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G38" s="22"/>
-      <c r="H38" s="12"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="18" t="s">
+      <c r="G42" s="27"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G39" s="22"/>
-      <c r="H39" s="12"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="18" t="s">
+      <c r="G43" s="27"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G40" s="20"/>
-      <c r="H40" s="12"/>
-    </row>
-    <row r="41" spans="1:8" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="9">
-        <v>9</v>
-      </c>
-      <c r="B41" s="10" t="s">
+      <c r="G44" s="28"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+    </row>
+    <row r="45" spans="1:9" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="18">
+        <v>10</v>
+      </c>
+      <c r="B45" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C45" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10" t="s">
+      <c r="D45" s="29"/>
+      <c r="E45" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F45" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G41" s="23" t="s">
+      <c r="G45" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="H41" s="32"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="18" t="s">
+      <c r="H45" s="32"/>
+      <c r="I45" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="14"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G42" s="25"/>
-      <c r="H42" s="33"/>
-    </row>
-    <row r="43" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="9">
+      <c r="G46" s="24"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="17"/>
+    </row>
+    <row r="47" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="18">
+        <v>11</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10" t="s">
+      <c r="F47" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H47" s="11"/>
+      <c r="I47" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="14"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" s="25"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="16"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="14"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G49" s="25"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="16"/>
+    </row>
+    <row r="50" spans="1:9" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="14"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G50" s="25"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="16"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="14"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" s="24"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="17"/>
+    </row>
+    <row r="52" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="18">
+        <v>12</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F52" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G43" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="H43" s="34"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="18" t="s">
+      <c r="G52" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="14"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G44" s="24"/>
-      <c r="H44" s="35"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="18" t="s">
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+    </row>
+    <row r="54" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="14"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G45" s="24"/>
-      <c r="H45" s="35"/>
-    </row>
-    <row r="46" spans="1:8" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="12"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G46" s="24"/>
-      <c r="H46" s="35"/>
-    </row>
-    <row r="47" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="12"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="18" t="s">
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+    </row>
+    <row r="55" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="14"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+    </row>
+    <row r="56" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="22"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G47" s="25"/>
-      <c r="H47" s="36"/>
-    </row>
-    <row r="48" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="9">
-        <v>11</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10" t="s">
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+    </row>
+    <row r="57" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="18">
+        <v>13</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="18" t="s">
+      <c r="F57" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H57" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="I57" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="22"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H58" s="31"/>
+      <c r="I58" s="22"/>
+    </row>
+    <row r="59" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="18">
+        <v>14</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G48" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="12"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-    </row>
-    <row r="50" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="12"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-    </row>
-    <row r="51" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="12"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-    </row>
-    <row r="52" spans="1:8" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="15"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-    </row>
-    <row r="53" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="9">
-        <v>12</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10" t="s">
+      <c r="G59" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="H59" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="I59" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="14"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G60" s="27"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="14"/>
+    </row>
+    <row r="61" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="14"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G61" s="28"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="22"/>
+    </row>
+    <row r="62" spans="1:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="18">
+        <v>15</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F53" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G53" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="15"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="G54" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="H54" s="16"/>
-    </row>
-    <row r="55" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="9">
-        <v>13</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="18" t="s">
+      <c r="F62" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G55" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="H55" s="10" t="s">
+      <c r="G62" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="H62" s="37" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="12"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="18" t="s">
+      <c r="I62" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="14"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G56" s="22"/>
-      <c r="H56" s="13"/>
-    </row>
-    <row r="57" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="12"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G57" s="20"/>
-      <c r="H57" s="13"/>
-    </row>
-    <row r="58" spans="1:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="9">
-        <v>14</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G58" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="12"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G59" s="22"/>
-      <c r="H59" s="13"/>
-    </row>
-    <row r="60" spans="1:8" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="15"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="18" t="s">
+      <c r="G63" s="25"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="14"/>
+    </row>
+    <row r="64" spans="1:9" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="22"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G60" s="20"/>
-      <c r="H60" s="13"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="101">
-    <mergeCell ref="H43:H47"/>
-    <mergeCell ref="H33:H40"/>
-    <mergeCell ref="H29:H32"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="H21:H28"/>
-    <mergeCell ref="G48:G52"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G43:G47"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="B33:B40"/>
-    <mergeCell ref="C33:C40"/>
-    <mergeCell ref="D33:D40"/>
-    <mergeCell ref="E33:E40"/>
-    <mergeCell ref="G33:G40"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="C21:C28"/>
-    <mergeCell ref="D21:D28"/>
-    <mergeCell ref="E21:E28"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="G21:G28"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="H58:H60"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="H55:H57"/>
-    <mergeCell ref="G55:G57"/>
-    <mergeCell ref="H48:H52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="H41:H42"/>
+  <mergeCells count="124">
+    <mergeCell ref="I47:I51"/>
+    <mergeCell ref="I52:I56"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="I62:I64"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="D17:D20"/>
     <mergeCell ref="E17:E20"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="I17:I20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="I5:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="I25:I32"/>
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="I37:I44"/>
+    <mergeCell ref="I45:I46"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="A5:A12"/>
     <mergeCell ref="B5:B12"/>
@@ -2041,6 +2331,92 @@
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="F2:F4"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="E52:E56"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="E25:E32"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="G25:G32"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="H47:H51"/>
+    <mergeCell ref="H37:H44"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="H25:H32"/>
+    <mergeCell ref="G52:G56"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G51"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="B37:B44"/>
+    <mergeCell ref="C37:C44"/>
+    <mergeCell ref="D37:D44"/>
+    <mergeCell ref="E37:E44"/>
+    <mergeCell ref="G37:G44"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="H52:H56"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
